--- a/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97F0CA9-2FCD-44D9-BE31-98D464A3BD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA05C5AB-4E9F-40B2-BCBD-A135BFD1A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C220A43-6E51-4C68-81BE-5CD8FB91FDEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,23 +86,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS MONSTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUT SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EFFECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
+    <t>GAMEPLAY UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +502,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,46 +543,46 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -579,27 +591,27 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA05C5AB-4E9F-40B2-BCBD-A135BFD1A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28C32BE-9326-4378-A321-6D86347398BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C220A43-6E51-4C68-81BE-5CD8FB91FDEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,23 +94,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS MONSTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CUT SCENE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMEPLAY UI</t>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUTORIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI &amp; ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS 1 - RAXAXIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS 2 - SIMON MANUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD MONSTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Role_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +542,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,64 +594,64 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Credit_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28C32BE-9326-4378-A321-6D86347398BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E87CEE-B023-434F-AB27-FE5CAD9C0D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C220A43-6E51-4C68-81BE-5CD8FB91FDEA}"/>
+    <workbookView xWindow="3780" yWindow="915" windowWidth="21600" windowHeight="12975" xr2:uid="{8C220A43-6E51-4C68-81BE-5CD8FB91FDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Credit_Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,22 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAP TOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TUTORIAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFFECT TOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFECT SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI &amp; ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,7 +142,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFFECT DESIGN</t>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERACT OBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT SYSTEM &amp; DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +538,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,13 +607,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -645,13 +641,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
